--- a/biology/Histoire de la zoologie et de la botanique/William_Charles_Linnaeus_Martin/William_Charles_Linnaeus_Martin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Charles_Linnaeus_Martin/William_Charles_Linnaeus_Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Charles Linnaeus Martin est un naturaliste britannique, né en 1798 et mort en 1864.
 Il est conservateur du muséum de la Zoological Society of London de 1830 à 1838, année durant laquelle il perd son travail à la suite de restrictions budgétaires. Il devient alors un écrivain spécialisé en histoire naturelle et signe des milliers d’articles et plusieurs ouvrages importants dont A Natural History of Quadrupeds and other Mammiferous Animals (1841), The History of the Dog (1845), The History of the Horse (1845) et Pictorial Museum of Animated Nature (1848-1849).
